--- a/Projects/ProjectAllocation.xlsx
+++ b/Projects/ProjectAllocation.xlsx
@@ -891,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J29"/>
+  <dimension ref="C3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,10 +910,10 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="25" t="s">
         <v>118</v>
       </c>
@@ -921,18 +921,18 @@
         <v>44179.75</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="14" t="s">
         <v>47</v>
       </c>
@@ -942,11 +942,11 @@
       <c r="E6" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
@@ -954,11 +954,11 @@
         <v>50</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="J7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>51</v>
       </c>
@@ -968,11 +968,11 @@
       <c r="E8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
         <v>53</v>
       </c>
@@ -982,11 +982,11 @@
       <c r="E9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="18" t="s">
         <v>55</v>
       </c>
@@ -996,11 +996,11 @@
       <c r="E10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="14" t="s">
         <v>57</v>
       </c>
@@ -1010,11 +1010,11 @@
       <c r="E11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="14" t="s">
         <v>59</v>
       </c>
@@ -1024,11 +1024,11 @@
       <c r="E12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="14" t="s">
         <v>61</v>
       </c>
@@ -1038,11 +1038,11 @@
       <c r="E13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J13" t="s">
+      <c r="G13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>63</v>
       </c>
@@ -1052,11 +1052,11 @@
       <c r="E14" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>93</v>
       </c>
@@ -1066,11 +1066,11 @@
       <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="14" t="s">
         <v>65</v>
       </c>
@@ -1080,11 +1080,11 @@
       <c r="E16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>67</v>
       </c>
@@ -1094,11 +1094,11 @@
       <c r="E17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="G17" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
         <v>69</v>
       </c>
@@ -1106,11 +1106,11 @@
         <v>70</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="J18" s="22" t="s">
+      <c r="G18" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>71</v>
       </c>
@@ -1120,11 +1120,11 @@
       <c r="E19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="G19" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>73</v>
       </c>
@@ -1134,11 +1134,11 @@
       <c r="E20" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
         <v>75</v>
       </c>
@@ -1148,11 +1148,11 @@
       <c r="E21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J21" t="s">
+      <c r="G21" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
         <v>77</v>
       </c>
@@ -1162,11 +1162,11 @@
       <c r="E22" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="G22" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
         <v>79</v>
       </c>
@@ -1176,11 +1176,11 @@
       <c r="E23" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>81</v>
       </c>
@@ -1188,11 +1188,11 @@
         <v>82</v>
       </c>
       <c r="E24" s="16"/>
-      <c r="J24" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
         <v>83</v>
       </c>
@@ -1202,11 +1202,11 @@
       <c r="E25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="14" t="s">
         <v>85</v>
       </c>
@@ -1216,11 +1216,11 @@
       <c r="E26" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="14" t="s">
         <v>87</v>
       </c>
@@ -1230,11 +1230,11 @@
       <c r="E27" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="G27" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
         <v>89</v>
       </c>
@@ -1244,11 +1244,11 @@
       <c r="E28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="G28" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="14" t="s">
         <v>91</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="E29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="G29" s="22" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Projects/ProjectAllocation.xlsx
+++ b/Projects/ProjectAllocation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Nume+Prenume</t>
   </si>
@@ -169,159 +169,9 @@
     <t>!! Similar with number 2 !!</t>
   </si>
   <si>
-    <t>Bărbieru</t>
-  </si>
-  <si>
-    <t>Andreea</t>
-  </si>
-  <si>
-    <t>Bilan</t>
-  </si>
-  <si>
-    <t>Constantin-Marcel</t>
-  </si>
-  <si>
-    <t>Burduhosu</t>
-  </si>
-  <si>
-    <t>Dumitrița-Ana</t>
-  </si>
-  <si>
-    <t>Călin</t>
-  </si>
-  <si>
-    <t>Florin</t>
-  </si>
-  <si>
-    <t>Cazanoschi</t>
-  </si>
-  <si>
-    <t>Andrei-Cristian</t>
-  </si>
-  <si>
-    <t>Coțofan</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Dubină</t>
-  </si>
-  <si>
-    <t>Andrei-Raul</t>
-  </si>
-  <si>
-    <t>Ion</t>
-  </si>
-  <si>
-    <t>Ramona</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Mihai-Teodor</t>
-  </si>
-  <si>
-    <t>Nechifor</t>
-  </si>
-  <si>
-    <t>Petru</t>
-  </si>
-  <si>
-    <t>Papuc</t>
-  </si>
-  <si>
-    <t>Marian-Ionuț</t>
-  </si>
-  <si>
-    <t>Pavel</t>
-  </si>
-  <si>
-    <t>Doru-Andrei</t>
-  </si>
-  <si>
-    <t>Periețanu</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Pînzaru</t>
-  </si>
-  <si>
-    <t>Ștefan-Vlad</t>
-  </si>
-  <si>
-    <t>Popovici</t>
-  </si>
-  <si>
-    <t>Bianca - Liliana</t>
-  </si>
-  <si>
-    <t>Proțic</t>
-  </si>
-  <si>
-    <t>Marian</t>
-  </si>
-  <si>
-    <t>Puiu</t>
-  </si>
-  <si>
-    <t>Lavinia Gabriela</t>
-  </si>
-  <si>
-    <t>Rotaru</t>
-  </si>
-  <si>
-    <t>Madalin Ionut</t>
-  </si>
-  <si>
-    <t>Șologon</t>
-  </si>
-  <si>
-    <t>George-Alexandru</t>
-  </si>
-  <si>
-    <t>Stoica</t>
-  </si>
-  <si>
-    <t>Laurențiu-Ionuț</t>
-  </si>
-  <si>
-    <t>Trandafir</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Țurcanu</t>
-  </si>
-  <si>
-    <t>Andrei-Daniel</t>
-  </si>
-  <si>
-    <t>Zaharia</t>
-  </si>
-  <si>
-    <t>Gheorghe Eduard</t>
-  </si>
-  <si>
-    <t>NAOUR</t>
-  </si>
-  <si>
-    <t>MOHAMED AMINE</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
-    <t>P1_VendingMachine Burger</t>
-  </si>
-  <si>
-    <t>P5_GenericMotorController</t>
-  </si>
-  <si>
     <t>P2_WaterDispenser</t>
   </si>
   <si>
@@ -338,15 +188,6 @@
   </si>
   <si>
     <t>P2_MilkshakeMachine</t>
-  </si>
-  <si>
-    <t>P5_GarageDoorController</t>
-  </si>
-  <si>
-    <t>P2_Juice Machine</t>
-  </si>
-  <si>
-    <t>P2_Bread Machine</t>
   </si>
   <si>
     <t>Name</t>
@@ -389,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,14 +293,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,10 +413,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,7 +736,7 @@
   <dimension ref="C3:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,359 +748,218 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="22">
         <v>44179.75</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="G6" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
+      <c r="G7" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="G8" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="17"/>
+      <c r="G9" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="20"/>
+      <c r="G11" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="G12" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="19"/>
+      <c r="G13" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="19"/>
+      <c r="G14" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="G15" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="G16" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="21"/>
+      <c r="G17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="G7" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="14" t="s">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="G18" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="19"/>
+      <c r="G21" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="G22" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="19"/>
+      <c r="G23" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="G24" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="G25" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="19"/>
+      <c r="G26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="14" t="s">
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="19"/>
+      <c r="G27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="14" t="s">
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="G28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="G18" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="15" t="s">
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="G29" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="G24" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" display="P5_WindowControl.pdf"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Projects/ProjectAllocation.xlsx
+++ b/Projects/ProjectAllocation.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>Nume+Prenume</t>
   </si>
@@ -224,6 +224,144 @@
   </si>
   <si>
     <t>Last update</t>
+  </si>
+  <si>
+    <t>Antonoaei</t>
+  </si>
+  <si>
+    <t>Aursulesei</t>
+  </si>
+  <si>
+    <t>Chiperi</t>
+  </si>
+  <si>
+    <t>Floroaia</t>
+  </si>
+  <si>
+    <t>Hurjui</t>
+  </si>
+  <si>
+    <t>Iacob</t>
+  </si>
+  <si>
+    <t>Iordache</t>
+  </si>
+  <si>
+    <t>Maftei</t>
+  </si>
+  <si>
+    <t>Mandache</t>
+  </si>
+  <si>
+    <t>Marciuc</t>
+  </si>
+  <si>
+    <t>Pavel</t>
+  </si>
+  <si>
+    <t>Pricop</t>
+  </si>
+  <si>
+    <t>Rotariu</t>
+  </si>
+  <si>
+    <t>Rusuciuc</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>Zaharia</t>
+  </si>
+  <si>
+    <t>Daniil</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Ionela</t>
+  </si>
+  <si>
+    <t>Fabian-Florin</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Alexandru-George</t>
+  </si>
+  <si>
+    <t>Ioan-Alexandru</t>
+  </si>
+  <si>
+    <t>Iustina</t>
+  </si>
+  <si>
+    <t>Paul-Razvan</t>
+  </si>
+  <si>
+    <t>Sergiu-Constantin</t>
+  </si>
+  <si>
+    <t>Ioana</t>
+  </si>
+  <si>
+    <t>Alexandru-Constantin</t>
+  </si>
+  <si>
+    <t>Robert Gabriel</t>
+  </si>
+  <si>
+    <t>Laura-Georgiana</t>
+  </si>
+  <si>
+    <t>Bianca - Claudia</t>
+  </si>
+  <si>
+    <t>Ovidiu</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Alin-Mihai</t>
+  </si>
+  <si>
+    <t>Gabriel-Daniel</t>
+  </si>
+  <si>
+    <t>Claudia-Mălina</t>
+  </si>
+  <si>
+    <t>Crăciun</t>
+  </si>
+  <si>
+    <t>Mădălina-Cornelia</t>
+  </si>
+  <si>
+    <t>Crăciunaș</t>
+  </si>
+  <si>
+    <t>Eșanu</t>
+  </si>
+  <si>
+    <t>Andrei-Răzvan</t>
+  </si>
+  <si>
+    <t>Mihăilă</t>
+  </si>
+  <si>
+    <t>Moisă</t>
+  </si>
+  <si>
+    <t>Nețoiu</t>
+  </si>
+  <si>
+    <t>Vlad-Ionuț</t>
+  </si>
+  <si>
+    <t>Puhăcel</t>
   </si>
 </sst>
 </file>
@@ -282,23 +420,25 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,14 +457,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -373,12 +507,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,25 +548,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -725,7 +872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G29"/>
+  <dimension ref="C3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,216 +891,306 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="22">
-        <v>44179.75</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="20">
+        <v>44545.708333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="G6" s="26" t="s">
+    <row r="6" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="H6" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="26" t="s">
+    <row r="7" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="H7" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+    <row r="8" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="E8" s="16"/>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="G10" s="26" t="s">
+    <row r="10" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="H10" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="20"/>
-      <c r="G11" s="26" t="s">
+    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="H11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16"/>
-      <c r="G12" s="26" t="s">
+    <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="H12" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="19"/>
-      <c r="G13" s="24" t="s">
+    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="H13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="19"/>
-      <c r="G14" s="26" t="s">
+    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="H14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="16"/>
-      <c r="G15" s="26" t="s">
+    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="H15" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16"/>
-      <c r="G16" s="26" t="s">
+    <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="H16" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="21"/>
-      <c r="G17" s="26" t="s">
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="H17" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="G18" s="26" t="s">
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="H18" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="26" t="s">
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="H19" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="26" t="s">
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="H20" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="19"/>
-      <c r="G21" s="24" t="s">
+    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="H21" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="26" t="s">
+    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="H22" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="19"/>
-      <c r="G23" s="25" t="s">
+    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="H23" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16"/>
-      <c r="G24" s="26" t="s">
+    <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="H24" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="26" t="s">
+    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="H25" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="19"/>
-      <c r="G26" s="26" t="s">
+    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="H26" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="19"/>
-      <c r="G27" s="26" t="s">
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="H27" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="G28" s="26" t="s">
+    <row r="28" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="H28" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="G29" s="26" t="s">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="22" t="s">
         <v>25</v>
       </c>
     </row>
